--- a/Document/玩法及规则 2.0.1.xlsx
+++ b/Document/玩法及规则 2.0.1.xlsx
@@ -1319,13 +1319,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1336,13 +1336,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1374,13 +1367,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,29 +1427,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1447,24 +1434,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1492,19 +1474,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1515,7 +1502,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1602,30 +1589,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1644,7 +1607,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,12 +1691,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1711,54 +1716,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2175,50 +2132,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2247,16 +2160,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2265,137 +2222,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2457,49 +2414,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2511,22 +2468,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2541,31 +2498,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2589,7 +2546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2598,7 +2555,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2613,160 +2570,157 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="25" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="25" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="15" xfId="25" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="16" xfId="25" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2781,19 +2735,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2835,16 +2783,16 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2856,22 +2804,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2883,22 +2831,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3490,8 +3438,8 @@
   <sheetPr/>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="33.75" customHeight="1"/>
@@ -3506,109 +3454,109 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146" t="s">
+      <c r="A2" s="143"/>
+      <c r="B2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="146" t="s">
+      <c r="C2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146" t="s">
+      <c r="A3" s="143"/>
+      <c r="B3" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146" t="s">
+      <c r="A4" s="143"/>
+      <c r="B4" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="157" t="s">
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="154" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="146"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146" t="s">
+      <c r="A5" s="143"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="146" t="s">
+      <c r="F5" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146" t="s">
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="53.25" customHeight="1" spans="1:9">
-      <c r="A6" s="146"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146" t="s">
+      <c r="A6" s="143"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="146" t="s">
+      <c r="D6" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="146" t="s">
+      <c r="E6" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="146" t="s">
+      <c r="F6" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146" t="s">
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:18">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="146" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="15"/>
@@ -3619,7 +3567,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="149" t="s">
+      <c r="J8" s="146" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="15"/>
@@ -3644,7 +3592,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="158"/>
+      <c r="I9" s="155"/>
       <c r="J9" s="17"/>
       <c r="K9" s="21" t="s">
         <v>22</v>
@@ -3657,7 +3605,7 @@
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="168"/>
+      <c r="R9" s="165"/>
     </row>
     <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="17"/>
@@ -3672,7 +3620,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="158"/>
+      <c r="I10" s="155"/>
       <c r="J10" s="17"/>
       <c r="K10" s="21" t="s">
         <v>26</v>
@@ -3685,7 +3633,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="158" t="s">
+      <c r="R10" s="155" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3702,7 +3650,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="158"/>
+      <c r="I11" s="155"/>
       <c r="J11" s="17"/>
       <c r="K11" s="21" t="s">
         <v>31</v>
@@ -3715,7 +3663,7 @@
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
-      <c r="R11" s="169"/>
+      <c r="R11" s="166"/>
     </row>
     <row r="12" customHeight="1" spans="1:18">
       <c r="A12" s="17"/>
@@ -3730,7 +3678,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="158"/>
+      <c r="I12" s="155"/>
       <c r="J12" s="22"/>
       <c r="K12" s="29" t="s">
         <v>35</v>
@@ -3743,7 +3691,7 @@
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
-      <c r="R12" s="170"/>
+      <c r="R12" s="167"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="17"/>
@@ -3758,7 +3706,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="158"/>
+      <c r="I13" s="155"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
       <c r="A14" s="22"/>
@@ -3773,250 +3721,250 @@
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
-      <c r="I14" s="159"/>
+      <c r="I14" s="156"/>
     </row>
     <row r="16" ht="55.5" customHeight="1" spans="1:15">
-      <c r="A16" s="150" t="s">
+      <c r="A16" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="160"/>
-      <c r="K16" s="161" t="s">
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="157"/>
+      <c r="K16" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="160"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="157"/>
     </row>
     <row r="17" ht="55.5" customHeight="1" spans="1:15">
-      <c r="A17" s="152"/>
-      <c r="B17" s="133" t="s">
+      <c r="A17" s="149"/>
+      <c r="B17" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="162"/>
-      <c r="K17" s="152" t="s">
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="159"/>
+      <c r="K17" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="130" t="s">
+      <c r="L17" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="130" t="s">
+      <c r="M17" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="130" t="s">
+      <c r="N17" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="162" t="s">
+      <c r="O17" s="159" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" ht="71.25" customHeight="1" spans="1:15">
-      <c r="A18" s="152"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="133" t="s">
+      <c r="A18" s="149"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="133" t="s">
+      <c r="D18" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="133" t="s">
+      <c r="E18" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="133" t="s">
+      <c r="F18" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="133" t="s">
+      <c r="G18" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="133" t="s">
+      <c r="H18" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="163" t="s">
+      <c r="I18" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="152" t="s">
+      <c r="K18" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="130" t="s">
+      <c r="L18" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="130" t="s">
+      <c r="M18" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="133" t="s">
+      <c r="N18" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="O18" s="162" t="s">
+      <c r="O18" s="159" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:15">
-      <c r="A19" s="152"/>
-      <c r="B19" s="133" t="s">
+      <c r="A19" s="149"/>
+      <c r="B19" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="133" t="s">
+      <c r="D19" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="133" t="s">
+      <c r="E19" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="133" t="s">
+      <c r="F19" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="133" t="s">
+      <c r="G19" s="130" t="s">
         <v>63</v>
       </c>
       <c r="H19" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="164" t="s">
+      <c r="I19" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="152" t="s">
+      <c r="K19" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="133" t="s">
+      <c r="L19" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="M19" s="133" t="s">
+      <c r="M19" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="133" t="s">
+      <c r="N19" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="O19" s="162" t="s">
+      <c r="O19" s="159" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" ht="55.5" customHeight="1" spans="1:15">
-      <c r="A20" s="152"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133" t="s">
+      <c r="A20" s="149"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="133" t="s">
+      <c r="D20" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="133" t="s">
+      <c r="E20" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="133" t="s">
+      <c r="F20" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="133" t="s">
+      <c r="G20" s="130" t="s">
         <v>61</v>
       </c>
       <c r="H20" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="164" t="s">
+      <c r="I20" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="K20" s="152" t="s">
+      <c r="K20" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="133" t="s">
+      <c r="L20" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="133" t="s">
+      <c r="M20" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="N20" s="130" t="s">
+      <c r="N20" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="162" t="s">
+      <c r="O20" s="159" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" ht="77.25" customHeight="1" spans="1:15">
-      <c r="A21" s="152"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133" t="s">
+      <c r="A21" s="149"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="133" t="s">
+      <c r="D21" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="133" t="s">
+      <c r="E21" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="133" t="s">
+      <c r="F21" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="133"/>
+      <c r="G21" s="130"/>
       <c r="H21" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="164" t="s">
+      <c r="I21" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="152" t="s">
+      <c r="K21" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="133" t="s">
+      <c r="L21" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="M21" s="133" t="s">
+      <c r="M21" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="N21" s="130" t="s">
+      <c r="N21" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="162" t="s">
+      <c r="O21" s="159" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" ht="55.5" customHeight="1" spans="1:15">
-      <c r="A22" s="153"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154" t="s">
+      <c r="A22" s="150"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="154" t="s">
+      <c r="D22" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="154" t="s">
+      <c r="E22" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="154" t="s">
+      <c r="F22" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="154"/>
-      <c r="H22" s="155" t="s">
+      <c r="G22" s="151"/>
+      <c r="H22" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="165" t="s">
+      <c r="I22" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="166" t="s">
+      <c r="K22" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="154" t="s">
+      <c r="L22" s="151" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154"/>
-      <c r="O22" s="167"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="164"/>
     </row>
     <row r="24" ht="49.5" customHeight="1" spans="1:9">
-      <c r="A24" s="149" t="s">
+      <c r="A24" s="146" t="s">
         <v>76</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -4069,7 +4017,7 @@
     </row>
     <row r="26" ht="26.25" customHeight="1"/>
     <row r="27" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="146" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="15"/>
@@ -4086,7 +4034,7 @@
       <c r="I27" s="42"/>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:9">
-      <c r="A28" s="156"/>
+      <c r="A28" s="153"/>
       <c r="B28" s="18"/>
       <c r="C28" s="21" t="s">
         <v>88</v>
@@ -4098,10 +4046,10 @@
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="158"/>
+      <c r="I28" s="155"/>
     </row>
     <row r="29" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A29" s="156"/>
+      <c r="A29" s="153"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21" t="s">
         <v>90</v>
@@ -4177,32 +4125,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="41.25" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="144"/>
-    <col min="2" max="2" width="47" style="145" customWidth="1"/>
-    <col min="3" max="16384" width="13.125" style="144"/>
+    <col min="1" max="1" width="13.125" style="141"/>
+    <col min="2" max="2" width="47" style="142" customWidth="1"/>
+    <col min="3" max="16384" width="13.125" style="141"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="142" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="142" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="142" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4218,318 +4166,318 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.875" defaultRowHeight="36.75" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="135"/>
-    <col min="2" max="2" width="63.875" style="136" customWidth="1"/>
-    <col min="3" max="3" width="67.5" style="136" customWidth="1"/>
-    <col min="4" max="16384" width="15.875" style="136"/>
+    <col min="1" max="1" width="15.875" style="132"/>
+    <col min="2" max="2" width="63.875" style="133" customWidth="1"/>
+    <col min="3" max="3" width="67.5" style="133" customWidth="1"/>
+    <col min="4" max="16384" width="15.875" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" s="134" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A1" s="137" t="s">
+    <row r="1" s="131" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A1" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="131" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:3">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="136" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="133" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:3">
-      <c r="A3" s="140"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="136" t="s">
+      <c r="A3" s="137"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="133" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:3">
-      <c r="A4" s="140"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="136" t="s">
+      <c r="A4" s="137"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="133" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:3">
-      <c r="A5" s="140"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="136" t="s">
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="133" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:3">
-      <c r="A6" s="140"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="136" t="s">
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="133" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:3">
-      <c r="A7" s="140"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="136" t="s">
+      <c r="A7" s="137"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="133" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:3">
-      <c r="A8" s="140"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="136" t="s">
+      <c r="A8" s="137"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="133" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:3">
-      <c r="A9" s="140"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="136" t="s">
+      <c r="A9" s="137"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="133" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:3">
-      <c r="A10" s="142"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="136" t="s">
+      <c r="A10" s="139"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="133" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="136" t="s">
+      <c r="B11" s="135"/>
+      <c r="C11" s="133" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="140"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="136" t="s">
+      <c r="A12" s="137"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="133" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="136" t="s">
+      <c r="A13" s="137"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="133" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="140"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="136" t="s">
+      <c r="A14" s="137"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="133" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="140"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="136" t="s">
+      <c r="A15" s="137"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="133" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="140"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="136" t="s">
+      <c r="A16" s="137"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="133" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="142"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="136" t="s">
+      <c r="A17" s="139"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="133" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="136" t="s">
+      <c r="B18" s="135"/>
+      <c r="C18" s="133" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="140"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="136" t="s">
+      <c r="A19" s="137"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="133" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="140"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="136" t="s">
+      <c r="A20" s="137"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="133" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="140"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="136" t="s">
+      <c r="A21" s="137"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="133" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="140"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="136" t="s">
+      <c r="A22" s="137"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="133" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="140"/>
-      <c r="B23" s="140"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="137"/>
     </row>
     <row r="24" ht="43.5" customHeight="1" spans="1:2">
-      <c r="A24" s="142"/>
-      <c r="B24" s="142"/>
+      <c r="A24" s="139"/>
+      <c r="B24" s="139"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="138" t="s">
+      <c r="A25" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="138"/>
-      <c r="C25" s="136" t="s">
+      <c r="B25" s="135"/>
+      <c r="C25" s="133" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="140"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="136" t="s">
+      <c r="A26" s="137"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="133" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="140"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="136" t="s">
+      <c r="A27" s="137"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="133" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="140"/>
-      <c r="B28" s="140"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="137"/>
     </row>
     <row r="29" customHeight="1" spans="1:2">
-      <c r="A29" s="140"/>
-      <c r="B29" s="140"/>
+      <c r="A29" s="137"/>
+      <c r="B29" s="137"/>
     </row>
     <row r="30" customHeight="1" spans="1:2">
-      <c r="A30" s="140"/>
-      <c r="B30" s="140"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="137"/>
     </row>
     <row r="31" ht="47.25" customHeight="1" spans="1:2">
-      <c r="A31" s="142"/>
-      <c r="B31" s="142"/>
+      <c r="A31" s="139"/>
+      <c r="B31" s="139"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="138" t="s">
+      <c r="A32" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="138"/>
-      <c r="C32" s="136" t="s">
+      <c r="B32" s="135"/>
+      <c r="C32" s="133" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="140"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="136" t="s">
+      <c r="A33" s="137"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="133" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="140"/>
-      <c r="B34" s="140"/>
-      <c r="C34" s="136" t="s">
+      <c r="A34" s="137"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="133" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="140"/>
-      <c r="B35" s="140"/>
-      <c r="C35" s="136" t="s">
+      <c r="A35" s="137"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="133" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="140"/>
-      <c r="B36" s="140"/>
+      <c r="A36" s="137"/>
+      <c r="B36" s="137"/>
     </row>
     <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" s="140"/>
-      <c r="B37" s="140"/>
+      <c r="A37" s="137"/>
+      <c r="B37" s="137"/>
     </row>
     <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" s="140"/>
-      <c r="B38" s="140"/>
+      <c r="A38" s="137"/>
+      <c r="B38" s="137"/>
     </row>
     <row r="39" customHeight="1" spans="1:2">
-      <c r="A39" s="142"/>
-      <c r="B39" s="142"/>
+      <c r="A39" s="139"/>
+      <c r="B39" s="139"/>
     </row>
     <row r="40" customHeight="1" spans="1:3">
-      <c r="A40" s="138" t="s">
+      <c r="A40" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="138"/>
-      <c r="C40" s="136" t="s">
+      <c r="B40" s="135"/>
+      <c r="C40" s="133" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:3">
-      <c r="A41" s="140"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="136" t="s">
+      <c r="A41" s="137"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="133" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:3">
-      <c r="A42" s="140"/>
-      <c r="B42" s="140"/>
-      <c r="C42" s="136" t="s">
+      <c r="A42" s="137"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="133" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="140"/>
-      <c r="B43" s="140"/>
+      <c r="A43" s="137"/>
+      <c r="B43" s="137"/>
     </row>
     <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="140"/>
-      <c r="B44" s="140"/>
+      <c r="A44" s="137"/>
+      <c r="B44" s="137"/>
     </row>
     <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="140"/>
-      <c r="B45" s="140"/>
+      <c r="A45" s="137"/>
+      <c r="B45" s="137"/>
     </row>
     <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="140"/>
-      <c r="B46" s="140"/>
+      <c r="A46" s="137"/>
+      <c r="B46" s="137"/>
     </row>
     <row r="47" customHeight="1" spans="1:2">
-      <c r="A47" s="142"/>
-      <c r="B47" s="142"/>
+      <c r="A47" s="139"/>
+      <c r="B47" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4558,9 +4506,9 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="33.75" customHeight="1"/>
@@ -4577,445 +4525,445 @@
     <col min="12" max="16384" width="14.625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" s="109" customFormat="1" customHeight="1" spans="2:11">
-      <c r="B1" s="109" t="s">
+    <row r="1" s="108" customFormat="1" customHeight="1" spans="2:11">
+      <c r="B1" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="109" t="s">
+      <c r="E1" s="112"/>
+      <c r="F1" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="132" t="s">
+      <c r="J1" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="K1" s="108" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B2" s="114" t="s">
+    <row r="2" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B2" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="115">
+      <c r="E2" s="114">
         <v>6</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-    </row>
-    <row r="3" s="110" customFormat="1" customHeight="1" spans="2:12">
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="115" t="s">
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+    </row>
+    <row r="3" s="109" customFormat="1" customHeight="1" spans="2:12">
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="115">
+      <c r="E3" s="114">
         <v>2</v>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
       <c r="K3" s="51"/>
       <c r="L3" s="51"/>
     </row>
-    <row r="4" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115" t="s">
+    <row r="4" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="115">
+      <c r="E4" s="114">
         <v>6</v>
       </c>
-      <c r="F4" s="116"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-    </row>
-    <row r="5" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="115" t="s">
+      <c r="F4" s="115"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+    </row>
+    <row r="5" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="115">
+      <c r="E5" s="114">
         <v>4</v>
       </c>
-      <c r="F5" s="118"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-    </row>
-    <row r="6" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115" t="s">
+      <c r="F5" s="117"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+    </row>
+    <row r="6" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="115">
+      <c r="E6" s="114">
         <v>24</v>
       </c>
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-    </row>
-    <row r="7" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="115" t="s">
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+    </row>
+    <row r="7" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="115">
+      <c r="E7" s="114">
         <v>18</v>
       </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-    </row>
-    <row r="8" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="115" t="s">
+      <c r="F7" s="114"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+    </row>
+    <row r="8" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="115">
+      <c r="E8" s="114">
         <v>4</v>
       </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-    </row>
-    <row r="9" s="111" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A9" s="119"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-    </row>
-    <row r="10" s="110" customFormat="1" customHeight="1" spans="2:9">
-      <c r="B10" s="121" t="s">
+      <c r="F8" s="114"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+    </row>
+    <row r="9" s="110" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A9" s="118"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+    </row>
+    <row r="10" s="109" customFormat="1" customHeight="1" spans="2:9">
+      <c r="B10" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="120" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="115">
+      <c r="E10" s="114">
         <v>3</v>
       </c>
-      <c r="F10" s="115" t="s">
+      <c r="F10" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="100"/>
-    </row>
-    <row r="11" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="115" t="s">
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="99"/>
+    </row>
+    <row r="11" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="114">
         <v>6</v>
       </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-    </row>
-    <row r="12" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="115" t="s">
+      <c r="F11" s="114"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+    </row>
+    <row r="12" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="115">
+      <c r="E12" s="114">
         <v>4</v>
       </c>
-      <c r="F12" s="115"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-    </row>
-    <row r="13" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="115" t="s">
+      <c r="F12" s="114"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+    </row>
+    <row r="13" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="115">
+      <c r="E13" s="114">
         <v>6</v>
       </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="117"/>
-    </row>
-    <row r="14" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="115" t="s">
+      <c r="F13" s="117"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="116"/>
+    </row>
+    <row r="14" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="115">
+      <c r="E14" s="114">
         <v>20</v>
       </c>
-      <c r="F14" s="115" t="s">
+      <c r="F14" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="123"/>
-      <c r="H14" s="117"/>
-    </row>
-    <row r="15" s="110" customFormat="1" customHeight="1" spans="2:9">
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="115" t="s">
+      <c r="G14" s="122"/>
+      <c r="H14" s="116"/>
+    </row>
+    <row r="15" s="109" customFormat="1" customHeight="1" spans="2:9">
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="115">
+      <c r="E15" s="114">
         <v>22</v>
       </c>
-      <c r="F15" s="115"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="117"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="116"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="115" t="s">
+    <row r="16" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="115">
+      <c r="E16" s="114">
         <v>3</v>
       </c>
-      <c r="F16" s="115"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-    </row>
-    <row r="17" s="111" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A17" s="119"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-    </row>
-    <row r="18" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-    </row>
-    <row r="19" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-    </row>
-    <row r="20" s="110" customFormat="1" customHeight="1" spans="2:10">
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+    </row>
+    <row r="17" s="110" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A17" s="118"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+    </row>
+    <row r="18" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+    </row>
+    <row r="19" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+    </row>
+    <row r="20" s="109" customFormat="1" customHeight="1" spans="2:10">
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
       <c r="I20" s="57"/>
       <c r="J20" s="57"/>
     </row>
-    <row r="21" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-    </row>
-    <row r="22" s="110" customFormat="1" customHeight="1" spans="2:11">
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
+    <row r="21" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+    </row>
+    <row r="22" s="109" customFormat="1" customHeight="1" spans="2:11">
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
       <c r="K22" s="57"/>
     </row>
-    <row r="23" s="110" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-    </row>
-    <row r="24" s="93" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A24" s="125"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
+    <row r="23" s="109" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+    </row>
+    <row r="24" s="92" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A24" s="124"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
     </row>
     <row r="25" customHeight="1" spans="2:9">
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="133"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="130"/>
     </row>
     <row r="26" customHeight="1" spans="2:9">
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="133"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="130"/>
     </row>
     <row r="27" customHeight="1" spans="2:9">
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="133"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="130"/>
     </row>
     <row r="28" customHeight="1" spans="2:9">
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="133"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="130"/>
     </row>
     <row r="29" customHeight="1" spans="2:9">
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
     </row>
     <row r="30" customHeight="1" spans="2:9">
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
     </row>
     <row r="32" customHeight="1" spans="3:8">
-      <c r="C32" s="128"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
     </row>
     <row r="33" customHeight="1" spans="3:8">
-      <c r="C33" s="128"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
     </row>
     <row r="34" customHeight="1" spans="3:8">
-      <c r="C34" s="128"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="130"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="128"/>
     </row>
     <row r="35" customHeight="1" spans="3:8">
-      <c r="C35" s="128"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="130"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="128"/>
     </row>
     <row r="36" customHeight="1" spans="3:8">
-      <c r="C36" s="128"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
     </row>
     <row r="37" customHeight="1" spans="3:8">
-      <c r="C37" s="128"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -5048,10 +4996,10 @@
   <sheetPr/>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18:K26"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="30.75" customHeight="1"/>
@@ -5093,7 +5041,7 @@
       <c r="I1" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="96" t="s">
+      <c r="K1" s="95" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5115,10 +5063,10 @@
       <c r="G2" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="98">
+      <c r="K2" s="97">
         <v>2</v>
       </c>
     </row>
@@ -5187,7 +5135,7 @@
       <c r="I5" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="99">
+      <c r="K5" s="98">
         <v>2</v>
       </c>
     </row>
@@ -5377,7 +5325,7 @@
       <c r="I14" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="100">
+      <c r="K14" s="99">
         <v>1</v>
       </c>
     </row>
@@ -5397,7 +5345,7 @@
       <c r="I15" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="100">
+      <c r="K15" s="99">
         <v>2</v>
       </c>
     </row>
@@ -5411,7 +5359,7 @@
       <c r="G16" s="75"/>
       <c r="H16" s="73"/>
       <c r="I16" s="73"/>
-      <c r="K16" s="100"/>
+      <c r="K16" s="99"/>
     </row>
     <row r="17" s="60" customFormat="1" customHeight="1" spans="1:11">
       <c r="A17" s="69"/>
@@ -5423,7 +5371,7 @@
       <c r="G17" s="75"/>
       <c r="H17" s="73"/>
       <c r="I17" s="73"/>
-      <c r="K17" s="101">
+      <c r="K17" s="100">
         <f>SUM(K2:K15)</f>
         <v>24</v>
       </c>
@@ -5540,7 +5488,7 @@
       <c r="I23" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="99">
+      <c r="K23" s="98">
         <v>2</v>
       </c>
     </row>
@@ -5610,7 +5558,7 @@
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="73"/>
-      <c r="K28" s="101">
+      <c r="K28" s="100">
         <f>SUM(K18:K26)</f>
         <v>20</v>
       </c>
@@ -5636,11 +5584,11 @@
       <c r="H29" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="I29" s="102" t="s">
+      <c r="I29" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="103"/>
-      <c r="K29" s="104"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="103"/>
     </row>
     <row r="30" s="60" customFormat="1" customHeight="1" spans="1:11">
       <c r="A30" s="69"/>
@@ -5665,7 +5613,7 @@
         <v>53</v>
       </c>
       <c r="J30" s="74"/>
-      <c r="K30" s="100"/>
+      <c r="K30" s="99"/>
     </row>
     <row r="31" s="60" customFormat="1" customHeight="1" spans="1:11">
       <c r="A31" s="69"/>
@@ -5688,7 +5636,7 @@
         <v>51</v>
       </c>
       <c r="J31" s="74"/>
-      <c r="K31" s="100"/>
+      <c r="K31" s="99"/>
     </row>
     <row r="32" s="60" customFormat="1" customHeight="1" spans="1:11">
       <c r="A32" s="69"/>
@@ -5711,7 +5659,7 @@
         <v>50</v>
       </c>
       <c r="J32" s="74"/>
-      <c r="K32" s="100">
+      <c r="K32" s="99">
         <v>3</v>
       </c>
     </row>
@@ -5736,7 +5684,7 @@
         <v>52</v>
       </c>
       <c r="J33" s="74"/>
-      <c r="K33" s="100">
+      <c r="K33" s="99">
         <v>2</v>
       </c>
     </row>
@@ -5761,7 +5709,7 @@
         <v>223</v>
       </c>
       <c r="J34" s="74"/>
-      <c r="K34" s="100">
+      <c r="K34" s="99">
         <v>1</v>
       </c>
     </row>
@@ -5786,7 +5734,7 @@
         <v>50</v>
       </c>
       <c r="J35" s="74"/>
-      <c r="K35" s="100">
+      <c r="K35" s="99">
         <v>3</v>
       </c>
     </row>
@@ -5811,7 +5759,7 @@
         <v>53</v>
       </c>
       <c r="J36" s="74"/>
-      <c r="K36" s="100">
+      <c r="K36" s="99">
         <v>2</v>
       </c>
     </row>
@@ -5831,7 +5779,7 @@
       <c r="G37" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="I37" s="105" t="s">
+      <c r="I37" s="104" t="s">
         <v>229</v>
       </c>
       <c r="K37" s="18">
@@ -5857,7 +5805,7 @@
         <v>51</v>
       </c>
       <c r="J38" s="74"/>
-      <c r="K38" s="100">
+      <c r="K38" s="99">
         <v>2</v>
       </c>
     </row>
@@ -5880,7 +5828,7 @@
         <v>51</v>
       </c>
       <c r="J39" s="74"/>
-      <c r="K39" s="100">
+      <c r="K39" s="99">
         <v>2</v>
       </c>
     </row>
@@ -5903,7 +5851,7 @@
         <v>53</v>
       </c>
       <c r="J40" s="74"/>
-      <c r="K40" s="100">
+      <c r="K40" s="99">
         <v>2</v>
       </c>
     </row>
@@ -5926,7 +5874,7 @@
         <v>51</v>
       </c>
       <c r="J41" s="74"/>
-      <c r="K41" s="99">
+      <c r="K41" s="98">
         <v>2</v>
       </c>
     </row>
@@ -5939,18 +5887,18 @@
       <c r="H42" s="82"/>
       <c r="I42" s="74"/>
       <c r="J42" s="74"/>
-      <c r="K42" s="100"/>
+      <c r="K42" s="99"/>
     </row>
     <row r="43" s="62" customFormat="1" customHeight="1" spans="1:11">
       <c r="A43" s="85"/>
-      <c r="I43" s="106"/>
-      <c r="K43" s="107">
+      <c r="I43" s="105"/>
+      <c r="K43" s="106">
         <f>SUM(K29:K42)</f>
         <v>20</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="11:11">
-      <c r="K44" s="108" t="s">
+      <c r="K44" s="107" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5967,14 +5915,14 @@
       <c r="F46" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="G46" s="89"/>
-      <c r="H46" s="90" t="s">
+      <c r="G46" s="87"/>
+      <c r="H46" s="89" t="s">
         <v>241</v>
       </c>
       <c r="K46" s="15"/>
     </row>
     <row r="47" s="60" customFormat="1" ht="44.25" customHeight="1" spans="1:11">
-      <c r="A47" s="91"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="83"/>
       <c r="C47" s="67"/>
       <c r="D47" s="68" t="s">
@@ -5987,13 +5935,13 @@
         <v>244</v>
       </c>
       <c r="G47" s="68"/>
-      <c r="H47" s="92" t="s">
+      <c r="H47" s="91" t="s">
         <v>245</v>
       </c>
       <c r="K47" s="18"/>
     </row>
     <row r="48" s="60" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A48" s="91"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="83"/>
       <c r="C48" s="67"/>
       <c r="D48" s="68" t="s">
@@ -6004,13 +5952,13 @@
         <v>247</v>
       </c>
       <c r="G48" s="68"/>
-      <c r="H48" s="93" t="s">
+      <c r="H48" s="92" t="s">
         <v>248</v>
       </c>
       <c r="K48" s="18"/>
     </row>
     <row r="49" s="60" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A49" s="91"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="83"/>
       <c r="C49" s="67"/>
       <c r="D49" s="83" t="s">
@@ -6023,13 +5971,13 @@
         <v>251</v>
       </c>
       <c r="G49" s="68"/>
-      <c r="H49" s="93" t="s">
+      <c r="H49" s="92" t="s">
         <v>252</v>
       </c>
       <c r="K49" s="18"/>
     </row>
     <row r="50" s="60" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A50" s="91"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="83"/>
       <c r="C50" s="67"/>
       <c r="D50" s="68" t="s">
@@ -6040,13 +5988,13 @@
         <v>254</v>
       </c>
       <c r="G50" s="68"/>
-      <c r="H50" s="93" t="s">
+      <c r="H50" s="92" t="s">
         <v>255</v>
       </c>
       <c r="K50" s="18"/>
     </row>
     <row r="51" s="60" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A51" s="91"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="83"/>
       <c r="C51" s="67"/>
       <c r="D51" s="68" t="s">
@@ -6057,21 +6005,21 @@
         <v>257</v>
       </c>
       <c r="G51" s="68"/>
-      <c r="H51" s="93" t="s">
+      <c r="H51" s="92" t="s">
         <v>258</v>
       </c>
       <c r="K51" s="18"/>
     </row>
     <row r="52" s="62" customFormat="1" customHeight="1" spans="1:11">
       <c r="A52" s="85"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="K52" s="107">
+      <c r="B52" s="93"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="93"/>
+      <c r="K52" s="106">
         <f>SUM(K48:K51)</f>
         <v>0</v>
       </c>
@@ -6091,7 +6039,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="39" customHeight="1" outlineLevelCol="7"/>
@@ -6529,8 +6477,8 @@
   <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38.25" customHeight="1"/>
